--- a/500all/speech_level/speeches_CHRG-114hhrg93914.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93914.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400380</t>
   </si>
   <si>
-    <t>Christopher H. Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Smith. The subcommittee will come to order. Good afternoon and welcome to everyone joining us today. I particularly want to welcome our witnesses and Ambassador Ronald Lauder, the president of the World Jewish Congress; Mr. Roger Cukierman, president of the Representative Council of Jewish Institutions of France; and Mr. Dan Asmussen, chairperson of the Danish Jewish Community.    In 1982, during my first term in Congress, I traveled with the National Conference on Soviet Jewry to Moscow and Leningrad, now St. Petersburg, to meet with Jewish refusniks in their homes and to engage Soviet leaders. Mark Levin invited me to be on that trip and has been a friend and a mentor ever since. For hours on end, Mark and I and a delegation that included former Democrat member of this committee, who was a ranking member, Sam Gejdenson, heard stories of the Soviets' physical and mental abuse, systemic harassment, gulags and psychiatric prisons, and an array of similarly wanton and brutal acts of anti-Semitism.    To apply for an exit visa, a universally recognized human right, which on paper, at least, the Soviet Union had acceded to, was to invite the cruelty and the wrath of the KGB and other small minded, morally stunted thugs. To courageously seek freedom rendered you ineligible for employment in Lenin's farcical workers' paradise. The Soviet system, militantly atheistic and morally incoherent, wouldn't let Jews leave, but didn't want Jews to stay either, a bizarre paradox.    To a brand new, 27-year-old Congressman, it was bewildering and deeply troubling. Why do they hate Jews? And I pondered that question over and over again and why the anti-Semitic obsession? Well, sadly, it has not changed and it is getting worse.    This is the ninth hearing I have chaired on combating anti-Semitism. The first was right after the Republicans took control. We put together a hearing called ``The Rising Tide of Anti-Semitism.'' And even though the Soviet Union had matriculated to Russia, we heard how anti-Semitism had become privatized and the government was doing little or nothing to mitigate its occurrence. We also heard that it was rising everywhere as well.    However, never in modern times has the need to defend Jews everywhere been greater. Our next hearings will be on the explosion of anti-Semitic hate on college campuses and Jewish community security which increasingly has to be addressed and real dollars put in place to lessen that threat as well.    For the first time since the Holocaust, the physical security of Jewish communities in Europe have become a top level concern. Our hearing today will examine the horrifying state of affairs facing Jewish communities in Europe at this time.    At a congressional hearing that I had in 2002, Dr. Shimon Samuels of the Wiesenthal Center in Paris testified and I quote him, ``The Holocaust for 30 years after the war acted as a protective teflon against blatant anti-Semitic expression, especially in Europe.&lt;greek-l&gt;'' `` deg. That teflon,'' he said, ``has eroded and what was considered distasteful and politically incorrect is becoming simply an opinion. But cocktail chatter,'' he went on to say, ``at fine English dinners can end as Molotov cocktails against synagogues.''    That is exactly where we are now, 13 years later. What was anti-Semitic cocktail chatter then, has now led to two people shot and killed at a synagogue and a Jewish cultural center in Copenhagen and four killed in a terrorist attack on a kosher supermarket in Paris. These are only the most recent outrages in a terrifying increase of extreme anti-Semitic violence. Let us not forget the May 2014 murder of four people at the Jewish Museum in Brussels and the March 2012 murder of three Jewish children and a rabbi at a Jewish school in the French city of Toulouse.    Each of these four attacks was perpetrated by a killer who has links to a jihadist movement. For far too long, far too many government officials, many of them mired in what Natan Sharansky summarized as ``the application of double standards and the demonization of Israel'' have reacted weakly to this danger. Meanwhile, the threat has grown exponentially.    Today, at least 3,000, perhaps more than 5,000 EU citizens have left to join ISIS in Syria, Iraq, and other conflict zones. This is the recent estimates of Europol, the EU's joint criminal intelligence body. It would be criminally irresponsible not to take this number as a warning of events much worse to come and to make every effort to prepare accordingly. And of course, that also applies to those who have gone to those battlefields from the United States.    In 2002, in response to what appeared to be a sudden frightening spike in anti-Semitism in several countries including the U.S., I first proposed the idea of conferences on combating anti-Semitism under the auspices of the Organization for Security and Co-operation in Europe. Convinced we had an escalating crisis on our hands, I teamed with several OSCE partners, including Germany and members of the Bundestag, to push for action and reform. Many of the people in the NGOs present in this room played leading and pivotal roles in that effort. Those efforts directly led to the creation of the OSCE Chairperson-in-Office's Personal Representative on Combating Anti-Semitism, which has been filled with great distinction by Rabbi Andy Baker since 2009.    Rabbi Baker has done outstanding work, dogged and energetic. He has been the driver behind everything the OSCE has done, has accomplished in fighting anti-Semitism in recent years.    My efforts with partners to put anti-Semitism on the OSCE agenda also led to important conferences in Vienna, Berlin, in Bucharest, and last fall in Berlin. In each of these, participating states have made solemn, tangible commitments to put our words into action. In some countries progress indeed has been made. Institutions that fight anti-Semitism have been created and they have done excellent work. They have also done the all-important work of chronicling it. As Sharansky said at one of our hearings, ``If you don't chronicle the crime, how can you fight it?'' But it has not been enough to reverse the new anti-Semitism sweeping Europe and it has failed miserably to anticipate and prevent the arrival of jihadist anti-Semitism in Europe. That is why we are here today, to review, recommit, and reenergize efforts to stop the evil of anti-Semitic violence that is threatening the Jewish communities of Europe. And again, this is worldwide, but our focus primarily is on Europe today.    We need to learn more about what must be done to ensure community security, how the community sees the threats they face, what they are doing about them, what the European governments are doing about them and how everyone can and must do more.    We can also learn how the U.S. should do more and be more effective in this fight. And this is especially in light of World Jewish Congress President Lauder's all-important question, who will lead off our witnesses, when he says in testimony today, ``Where is the United States?'' Ambassador Lauder will say, ``Once again, like the 1930s, European Jews live in fear. In my travels to all of these communities,'' he goes on, ``I am asked the question around Europe and the world. Where is the United States? Why isn't the United States leading the world in this crisis?''    I would like to now yield to my good friend and colleague, Mr. Mark Meadows, for any comments he might have.</t>
   </si>
   <si>
     <t>412552</t>
   </si>
   <si>
-    <t>Mark Meadows</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Meadows. Thank you, Mr. Chairman, and thank each of you for being here and also thank you to the 60 or so of you who are here from the World Jewish Congress. I noticed that you were here because you were arguing with each other on which way to get to the hearing room and it is a pleasure to have you here.    Sadly, this is an all too familiar theme and what we have heard and I will speak from the heart today because for this particular issue, it is a passion for me. It is one that we must continue to not only voice and articulate, but do it in a way that is persuasive where we can bring the rest of the world to an understanding of what happens each and every day. And I say each and every day because there are over 550 violent anti-Semitic crimes that are perpetrated every year. And so when we look at that and I am not just talking about slights, I am talking about violent incidents, so almost two a day, that are being experienced across the country and across the world.    And when we look at that, to put it in context, we have not seen this level since the days of World War II. And when we look at that, it is troubling when we can see that kind of rhetoric, hostility, and truly a hatred that continues to come out and honestly be justified because of some action that is happening somewhere else. To think that this would be an action that could somehow be justified because of a political, geopolitical thing that is happening throughout the world is inexcusable.    But I also think that it is critical for us to continue to raise the awareness. There is a generation that is coming up that do not know from history other than reading in textbooks what happened during World War II. It is not personal. The Holocaust survivors are truly disappearing at an alarming rate just because of age and yet, we are not doing a good job of truly educating and informing the generation to come.    And so my plea to each one of you is as Chairman Smith raises this issue in this hearing and the witness testimony hopefully will highlight it today, is that I need you to redouble your effort in your communities, in your synagogues, in the places where you do business, to make sure that this message continues to get told to the generations that are coming.    I will close with this. It is a personal story of my wife and I on the banks of a river in Budapest and there on the banks are some shoes, some bronze shoes. They are a reminder of a terrible, terrible thing that happened long ago. And yet, if we do not stand firm today, that same tragedy could happen again, and in ways is happening again today. And so I look forward to the testimony and I join the chairman in an unyielding resolve to make sure that we address this particular issue. And I thank the chairman.</t>
   </si>
   <si>
@@ -76,18 +70,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Cukierman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cukierman. Mr. Chairman, members of the committee, thank you for the opportunity to appear before this subcommittee.    Jews have lived in France for the last 2,000 years. One thousand years ago, at the time of the crusades, the famous Talmudist Rachi was living in the city of Troyes. He was producing wine, a typical French job, and he was also famous for his expertise in old French language. More than 200 years ago in 1791, at the time of the French Revolution, French Jews were given full French citizenship. Today, we are \\1/2\\ million Jews in France, less than 1 percent of the French population. And the CRIF which I chair is the roof body of French Jewish institutions. It is comparable to the President's Conference of Major Jewish Institutions.    Today, in 2015, our synagogues and our Jewish schools have to be protected by the police and even by the army with machine guns. Why is that so? Because there is a World War started by Middle Age barbarian fanatics who are cutting heads, are stoning women, are killing kids, and want to impose to the rest of the world the Sharia, their concept of what Islam should be in their views.    The first victims are the moderate Muslims. This is a war against Western modern civilization. And the Jews are seen by these jihadists as a privileged target. We Jews are the sentinels at the forefront of this war. But we are not the only victims. Military forces, policemen and women, and journalists are also targeted and killed. These jihadists are acting under different names: Daesh, ISIS, al-Qaeda, Boko Haram, AQIM, Hamas. It started in the Middle East: Syria, Iraq, Yemen, and Gaza. It reaches Africa: Mali, Niger, Nigeria, Cameroon, Chad, and Tunisia and now it is in Europe: France, Belgium, and Denmark.    In France, small children were killed in March 2012 in Toulouse, at point-blank at the entrance of a school by Mohamed Merah. In 2014, four people were killed in the Jewish Museum of Brussels by Mehdi Nemouche. And then in January 2015, four people were killed in the Paris kosher grocery store, and then in front of the Copenhagen Synagogue. All victims were targeted because they were Jews. All these killers were jihadists.    In front of that situation the French Government shows a perfect understanding of our situation. Prime Minister Manuel Valls said that anti-Zionism is anti-Semitism. And President Hollande said that ``it is not the Jews who should leave the country, it is the anti-Semites.'' And immediately after the grocery attack, the government added close to 8,000 military to the police forces to protect the Jewish places.    From where are these jihadists coming? They come from the Muslim community which is estimated in France around 10 percent of the total French population. And the French jihadists is estimated at 1,300 people who are presently combating in Syria and Iraq. And among them many French ethnics recently converted to Islam.    It seems that they are generally not influenced by the French imams, not influenced by the press which they don't read, nor by the TV that they don't watch. They were educated to the jihad in the French jails and by Internet.    This is why the CRIF, our organization, bought a full page ad in the New York Times on March 2, 2015, which was an appeal to our American friends and also to you asking that they should put pressure on the Internet providers to set a limit to the swarm of hate which can be found on Internet, to remove anti-Semitic contents as soon as it is flagged. On the Internet ways were found to ban child pornography. Likewise anti-Semitism must be banned. The providers of Internet must understand that they bear a responsibility when murders are committed by youngsters who became jihadists through Internet.    Now the question that I am asked daily is whether there a future for Jews in France?    An increasing number of French Jews are considering leaving France. The French Jewish population which is estimated at \\1/2\\ million people, is the third largest Jewish community in the world after Israel and the U.S. In the last 3 years, 12,000 French citizens left to Israel. Others chose the U.S., Canada, or Australia. Many people refuse to see the future of their kids if they have to study in schools or to go to synagogues which appear as fortresses protected by military and heavy machine guns. The atmosphere is tense. One cannot travel in the subway with a yarmulke. Anti-Semitism is active in many suburbs and in many public schools.    Nevertheless, I believe that a big proportion of the French Jews will remain in France where their roots and their culture incite them to confront adversity as their parents or ancestors did at difficult periods like the Dreyfus Affair or the Vichy period.    Thank you and I am, of course, ready to answer any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. Mr. Cukierman, thank you very much for your insights and counsel and your historical perspective which is very, very illuminating. We look forward to questions when we get to that point.    I would like to now ask Mr. Asmussen, if you would proceed.</t>
   </si>
   <si>
-    <t>Asmussen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Asmussen. Dear Mr. Chairman, dear Members of Congress. It is a great honor for me to testify before the United States Congress, although it is on a sad occasion.    You probably think of Denmark as a small and peaceful country. And it is basically also the way we think ourselves. We are people of 5.5 million, 5,000 Jews.    Only 2 years ago, October 2013, the Danish society celebrated the 70 years commemoration of the saving of the Danish Jewry from the Nazi onslaught. It was an amazing achievement of the Danish society to stand up, come together and to save its Jewish minority. The Danish population believed that its Jewish neighbors and friends were an integral of the Danish society, making Denmark a country that could rightfully be defined as righteous among the nations.    On February 15th this year, the Danish society once again came together. This time in order to mourn the loss of Dan Uzan, a 37-year-old Jewish man, who was murdered while protecting the guests at a Bat Mitzah party in the Jewish Community Center. Thousands of Danes came together in order to speak out against terror.    While the community was in shock and despair, Danes showed again how much they care for their Jewish citizens. In the days following the attack, thousands of people showed their respect. They laid flowers in front of Copenhagen's synagogue.    So on February 15, the Jewish community and the whole Danish society was brutally awoken to a new reality. We had warned the authorities for years that such an attack like that could happen on Danish soil. We had urged them to take warning signs seriously, while we, the Jewish community in parallel, took it upon ourselves to safeguard our community.    The terror attack against the Jewish community in Denmark did not occur in a vacuum. It did not happen in Copenhagen just by chance. It was, unfortunately, the culmination of years of growing anti-Semitism. It happened in a country where it has become widely acceptable to criticize and question both Israel and Jews with a carelessness that we did not expect or imagine just a few years ago.    During the Gaza conflict last summer, a few hundred people were evacuated by police because police could not guarantee their safety due to aggression from Hamas supporters during a demonstration calling for peace, calling for a two-state solution.    A few days earlier, almost 4,000 people signed a petition urging Danish media not to use journalists with Jewish heritage for coverage of Middle East conflict. Yet, it was not before the Jewish school in Copenhagen was vandalized with graffiti that politicians decided to react and speak out against these incidents.    It is, however, important to understand that the Danish society itself has never been anti-Semitic and that many of the threats facing Danish Jewry, like in the rest of Europe, come from marginalized and radicalized Muslims, and these form, I believe, a small minority of all Muslims in Denmark.    The terrorist who committed the two murders was born and raised in Denmark and used his religion to justify the crime. Unfortunately, it doesn't seem that he is alone with this view. That was demonstrated when more than 700 people participated in his funeral cheering at him.    At this point, four people are jailed, accused of helping him.    On the other end of the spectrum, we have witnessed how Muslim organizations spoke out against hatred and prejudice against a fellow citizen. We truly appreciate that expression of support and we welcome any such initiatives. It is important for me to emphasize that we have good relations with moderate Muslim organizations. We work together on issues of common religious rights.    However, we still need for the Muslim community to do more, to become more outspoken against violence and hatred, to confront hate and prejudices toward Jews.    Danish society can only do so much. The real long-term solution needs to be found inside the Muslim community, and we need them to take more responsibility in speaking out against anti-Semitism and against terror committed in the name of their religion.    In recent weeks, the Jewish community received strong support from the Danish politicians through the media. We believe it served as a wake-up call and we expect that our problems will now be taken more seriously than in the past.    Last week, Ira Forman visited Copenhagen. Ira Forman is a Special Envoy to Monitor and Combat Anti-Semitism. He made it clear to us that the Danish Government in his opinion is not doing enough compared with the European countries to combat anti-Semitism. And he said that it could never be justified that the Jewish community, or any other minority group for that matter, should have to prioritize security over education or ultimately prioritize security over the future of the community.    Mr. Forman is right. If we spend all our resources on security, our children won't have a future. Yet, if we fail to protect our children, Danish Jewry won't have a future either. The parents simply won't send them to the Jewish school.    We need at this point a long-term governmental plan that will keep our community safe as much as possible. The Justice Department has said that such a plan is in the making. And we need the Muslim community to speak out and help in building a democratic, tolerant, and peaceful society. This is the only viable and long-term solution, so we one day will not need to risk the lives of our children in order for them to protect the community as Dan Uzan did.    I feel truly grateful toward the Danish society for standing up for the Jewish minority in these difficult times. I just wish they had done so when we asked for help after the incidents in Toulouse and Brussels.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -97,9 +85,6 @@
     <t>412470</t>
   </si>
   <si>
-    <t>David N. Cicilline</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cicilline. Thank you, Mr. Chairman. I want to thank you for your leadership and for calling today's hearing on responding to the rising tide of anti-Semitism, to give us an opportunity examine in depth, the alarming increase in anti-Semitic incidents in Europe and begin to discuss what approaches should be used to temper this extremism that is unprecedented since the end of World War II.    I would also like to thank our very distinguished witnesses for being here today. Thank you for sharing your assessment of what the current status of anti-Semitism is in Europe and what specific trends you are seeing and what should be done to combat it and how we in Congress can assist.    The rise of anti-Semitism and related hate crimes in recent months is beyond debate. While many were awakened to this reality in January when four Jewish customers were killed in a kosher market in Paris, days after the attack on the satirical magazine, Charlie Hebdo, that left 12 people dead, anti-Semitism has been on the rise since the early 2000s. The United Kingdom last year, for example, recorded the highest number of anti-Semitic incidents with the London police reporting an increase of 120 percent in anti-Semitic crimes in 2014. Most alarming perhaps are recent statistics from the Anti-Defamation League that show that an average of 24 percent of those surveyed in Western European countries harbor some degree of anti-Semitic sentiment with that number jumping much higher in countries like Greece and France.    Furthermore, 66 percent of Jewish respondents indicated that anti-Semitism was a major problem in their respective countries. In response to the tragic attack in Denmark where two individuals were murdered at a synagogue in February, the Israeli Prime Minister stated, ``We are preparing and calling for the absorption of mass immigration from Europe. To the Jews of Europe and to the Jews of the world I say that Israel is waiting for you with open arms.''    The Chief Rabbi of Copenhagen, however, responded, ``We will not let terror dictate our lives. We will not. We will continue living as Jews here in Denmark and everywhere else in the world.''    The environment that is increasingly conductive to anti-Semite must be dealt with head on and immediately stopped. The United States has the largest Jewish population in the world and Jews have contributed greatly to all aspects of our society. Therefore, we have a personal stake in protecting communities as integral to the fabric of the United States. We need to work together with our European allies to combat anti-Semitism with the same vigor that we have with respect to protecting communities and to combating terrorism and ensuring peace and security around the world.    I look forward to working with my congressional colleagues, our European counterparts and the Jewish community all over the world to develop effective strategies to combat the rise of anti-Semitism in Europe and to work to ensure that this hatred is stopped in its tracks.    I thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -109,18 +94,12 @@
     <t>412604</t>
   </si>
   <si>
-    <t>Curt Clawson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Clawson. Thank you for coming today and sharing your personal stories.    Mr. Asmussen, I remember the sadness in my father's eyes when the murders took place in Denmark. Clawson is Danish. My forefathers come from about an hour south of Copenhagen in Borse in Zealand. My dad has taken me there. My father speaks Danish. And so it hit home to us personally and I will always remember his face when it happened. And he has told me he was glad his father wasn't here. So your words hit home and if there is anything that I can ever do, and I am sure my colleagues can ever do, to influence this in a positive way I am innately motivated to do so and see the innate unjustness of what is going on with the Jewish community in Europe.    I think of your question or your comment that the solution must come from within the Muslim community. That feels hopeful to me, but it also feels like we have to prepare for the fact that that might not happen. And if so, my question for the three of you then becomes what do we do next? What do we do now? Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. Thank you very much. Mr. Emmer?</t>
   </si>
   <si>
-    <t>Emmer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Emmer. Well, I echo my colleagues' comments. I want to thank the chair for holding this important hearing and I just want to thank everyone, not only the witnesses, but everyone else who understands the importance of this issue and has taken time to be here today.    It is amazing how this place works. Things are planned all at the same time and typically the same committees, but that shouldn't be taken as we don't think this is important. This is of paramount importance. So my apologies for coming in late. My thanks to the chair for having this important hearing and for all of you being here. And let us say the discussion and the testimony and the issue needs to be at the forefront and we need to keep raising it so people understand they can't just ignore it. You need to call things what they are and you need to address them when they occur.    So again, thank you, Mr. Chair, and thank you to the witnesses.</t>
   </si>
   <si>
@@ -136,16 +115,10 @@
     <t xml:space="preserve">    Mr. Smith. Thank you. Mr. Deutch.</t>
   </si>
   <si>
-    <t>Deutch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Deutch. Thank you, Mr. Chairman, and thanks for giving me an opportunity just to sit in. I have another hearing. I appreciate it very much. Thanks for holding the hearing to you and Ranking Member Bass and thanks for your leadership on this and so many other human rights issues.    I appreciate the witnesses being here today, for offering their testimony. It is very helpful for Members of Congress to hear how the growth of anti-Semitism in recent years is viewed from a European perspective.    I will just make a couple of quick observations. We know that an overwhelming majority of the world's Jewish population lives in the United States and Israel, but in Europe where centuriess-old Jewish life was decimated by the Holocaust, the Jewish community that remains faces a growing animosity that is creating a very real security threat which your testimony here is so helpful to highlight. It is not to excuse, as Ambassador Lauder pointed out, it is not to excuse our own homegrown anti-Semitism. It certainly exists. The fact is it made up more than 50 percent of the religious bias-based hate crimes in 2013, but it is informative. It is helpful to hear how countries around the world are responding to intimidation tactics, to pressure, to deadly attacks on the Jewish populations.    The world as Ambassador Lauder said and as we have heard repeatedly and rightfully and importantly throughout your visit the past couple of days, the world has to take action because of what the rise of anti-Semitism means not just to the Jewish communities in Europe, but because of what the rise of anti-Semitism means to all countries that allow it to persist, what it actually portends for others.    And so I think we have to take action. I am proud to have joined with my colleagues, many of who are on the dais here today, the chairman in particular, to form the bipartisan task force for combating anti-Semitism, the purpose being we want to try to help our peers in Congress to understand the real and growing threat posed by anti-Semitism globally to allow Members of Congress to interact with the administration and to interact with NGOs and partners abroad to devise innovative ways to try to address these issues, to curb the threat and to attack it at its source.    And I will just finish, Mr. Chairman, by again highlighting that anti-Semitism matters to everyone. It is not just the Jews, but to every citizen in the world who values human rights. It is a shared threat. It is a threat that we have to work together to address what is our common problem.    And Ambassador Lauder, as you point out, efforts to mask anti-Semitism in some sort of anti-Israel rhetoric should be exposed for what they are. Ultimately, the threats posed by anti-Semitism are a threat, as I said, to all of us more broadly.    Your participation here, Mr. Chairman, your willingness to hold this hearing and your commitment to this issue means an enormous amount and I am grateful to be able to just stop by and participate. Thank you so much. I yield the rest of my time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. Mr. Deutch, thank you very much for being here and for working in this issue so long and so hard yourself and we do have now, we have just revitalized and reconstituted a task force on combating anti-Semitism with four Republicans and four Democrats as co-chairs. We hope to invite frankly the entire House to join us. We have had this before, but I think having four co-chairs on each side will further demonstrate the significance of this commitment and that we really want to see action.    I do have questions I will ask a little bit later, but I would like to yield; we are joined by the gentleman from Arizona, Trent Franks, who is the chairman of the Constitution Subcommittee for the Judiciary Committee. He has been back and forth because he, too, has a markup going on. But he is also chairman of the Religious Freedom Caucus. So it is really a privilege to welcome him to the subcommittee.</t>
-  </si>
-  <si>
-    <t>Franks</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Franks. Well, thank you, Mr. Chairman, and thanks to the subcommittee here for just allowing me the privilege to sit in on this. I am grateful to everyone that is here. I know that we have had anti-Semitism in the world for a long time, but it does seem like in recent days it has surged and I am incredibly discouraged about all of that.    My biggest fear is that somehow the countries of the world would somehow believe that America's commitment to Israel has diminished because that is of strategic significance to make it clear to the world that America is firmly with Israel and that Israel is with America. I am convinced that Israel is as important to America as America is to Israel. I know of no people on earth that contribute more to the cause of humanity than the people of Israel.    Mr. Chairman, it brings to my mind a quote by Shekh Hassan Nasrallah that really, I think, puts it into perspective. This is a jihadist that would do everything he could to destroy Israel if he could. And he said, ``You know, we have discovered how to hit the Jews where they are most vulnerable. The Jews love life. So that is what we shall take from them. We will win because they love life and we love death.'' Now that is a very frightening equation to face an enemy that loves death and is willing to embrace death in order to destroy another people based on just a bigoted point of view.    I would suggest to you, Mr. Chairman, that should be reason for great concern on the part of all us. The Jewish people have demonstrated a history that is unparalleled. when the Holocaust was over, if any people in the world had reason to quit, I suppose it was them, but instead of being crushed and instead of completely giving up, they got their revenge by living. They dried their eyes and looked up again and they began to build. And they built a community and they built a nation and today they are a force in the world for good and today, the Nazis are gone and Israel remains.    And Mr. Chairman, I think we need all be very committed to make sure that tomorrow, the jihadists will be gone and Israel will remain. I am grateful to you, sir, for this very valuable hearing. I think it is important that the world and the people of Israel know that some of their rhetoric that has come from our administration lately does not reflect the hearts of the Congress.    And with that, sir, I thank you for the opportunity.</t>
@@ -646,11 +619,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -670,13 +641,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -698,11 +667,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -724,11 +691,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -748,13 +713,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -776,11 +739,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -800,13 +761,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -828,11 +787,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -852,13 +809,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -880,11 +835,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -904,13 +857,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -932,11 +883,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -956,13 +905,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s">
-        <v>34</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -984,11 +931,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1008,13 +953,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1034,13 +977,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1062,11 +1003,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1086,13 +1025,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" t="s">
-        <v>40</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1114,11 +1051,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1138,13 +1073,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" t="s">
-        <v>43</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1166,11 +1099,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1190,13 +1121,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1216,13 +1145,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1242,13 +1169,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1268,13 +1193,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1294,13 +1217,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1320,13 +1241,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1346,13 +1265,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1372,13 +1289,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1398,13 +1313,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1424,13 +1337,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1450,13 +1361,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1476,13 +1385,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1502,13 +1409,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1528,13 +1433,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1554,13 +1457,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1580,13 +1481,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1606,13 +1505,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1632,13 +1529,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1658,13 +1553,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1684,13 +1577,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>19</v>
-      </c>
-      <c r="G42" t="s">
-        <v>34</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1710,13 +1601,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1736,13 +1625,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>19</v>
-      </c>
-      <c r="G44" t="s">
-        <v>34</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1762,13 +1649,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1788,13 +1673,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" t="s">
-        <v>34</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1814,13 +1697,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1840,13 +1721,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48" t="s">
-        <v>34</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1866,13 +1745,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" t="s">
-        <v>34</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1892,13 +1769,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" t="s">
-        <v>34</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1918,13 +1793,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" t="s">
-        <v>34</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1944,13 +1817,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" t="s">
-        <v>34</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1970,13 +1841,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" t="s">
-        <v>34</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1996,13 +1865,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg93914.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93914.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400380</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Smith. The subcommittee will come to order. Good afternoon and welcome to everyone joining us today. I particularly want to welcome our witnesses and Ambassador Ronald Lauder, the president of the World Jewish Congress; Mr. Roger Cukierman, president of the Representative Council of Jewish Institutions of France; and Mr. Dan Asmussen, chairperson of the Danish Jewish Community.    In 1982, during my first term in Congress, I traveled with the National Conference on Soviet Jewry to Moscow and Leningrad, now St. Petersburg, to meet with Jewish refusniks in their homes and to engage Soviet leaders. Mark Levin invited me to be on that trip and has been a friend and a mentor ever since. For hours on end, Mark and I and a delegation that included former Democrat member of this committee, who was a ranking member, Sam Gejdenson, heard stories of the Soviets' physical and mental abuse, systemic harassment, gulags and psychiatric prisons, and an array of similarly wanton and brutal acts of anti-Semitism.    To apply for an exit visa, a universally recognized human right, which on paper, at least, the Soviet Union had acceded to, was to invite the cruelty and the wrath of the KGB and other small minded, morally stunted thugs. To courageously seek freedom rendered you ineligible for employment in Lenin's farcical workers' paradise. The Soviet system, militantly atheistic and morally incoherent, wouldn't let Jews leave, but didn't want Jews to stay either, a bizarre paradox.    To a brand new, 27-year-old Congressman, it was bewildering and deeply troubling. Why do they hate Jews? And I pondered that question over and over again and why the anti-Semitic obsession? Well, sadly, it has not changed and it is getting worse.    This is the ninth hearing I have chaired on combating anti-Semitism. The first was right after the Republicans took control. We put together a hearing called ``The Rising Tide of Anti-Semitism.'' And even though the Soviet Union had matriculated to Russia, we heard how anti-Semitism had become privatized and the government was doing little or nothing to mitigate its occurrence. We also heard that it was rising everywhere as well.    However, never in modern times has the need to defend Jews everywhere been greater. Our next hearings will be on the explosion of anti-Semitic hate on college campuses and Jewish community security which increasingly has to be addressed and real dollars put in place to lessen that threat as well.    For the first time since the Holocaust, the physical security of Jewish communities in Europe have become a top level concern. Our hearing today will examine the horrifying state of affairs facing Jewish communities in Europe at this time.    At a congressional hearing that I had in 2002, Dr. Shimon Samuels of the Wiesenthal Center in Paris testified and I quote him, ``The Holocaust for 30 years after the war acted as a protective teflon against blatant anti-Semitic expression, especially in Europe.&lt;greek-l&gt;'' `` deg. That teflon,'' he said, ``has eroded and what was considered distasteful and politically incorrect is becoming simply an opinion. But cocktail chatter,'' he went on to say, ``at fine English dinners can end as Molotov cocktails against synagogues.''    That is exactly where we are now, 13 years later. What was anti-Semitic cocktail chatter then, has now led to two people shot and killed at a synagogue and a Jewish cultural center in Copenhagen and four killed in a terrorist attack on a kosher supermarket in Paris. These are only the most recent outrages in a terrifying increase of extreme anti-Semitic violence. Let us not forget the May 2014 murder of four people at the Jewish Museum in Brussels and the March 2012 murder of three Jewish children and a rabbi at a Jewish school in the French city of Toulouse.    Each of these four attacks was perpetrated by a killer who has links to a jihadist movement. For far too long, far too many government officials, many of them mired in what Natan Sharansky summarized as ``the application of double standards and the demonization of Israel'' have reacted weakly to this danger. Meanwhile, the threat has grown exponentially.    Today, at least 3,000, perhaps more than 5,000 EU citizens have left to join ISIS in Syria, Iraq, and other conflict zones. This is the recent estimates of Europol, the EU's joint criminal intelligence body. It would be criminally irresponsible not to take this number as a warning of events much worse to come and to make every effort to prepare accordingly. And of course, that also applies to those who have gone to those battlefields from the United States.    In 2002, in response to what appeared to be a sudden frightening spike in anti-Semitism in several countries including the U.S., I first proposed the idea of conferences on combating anti-Semitism under the auspices of the Organization for Security and Co-operation in Europe. Convinced we had an escalating crisis on our hands, I teamed with several OSCE partners, including Germany and members of the Bundestag, to push for action and reform. Many of the people in the NGOs present in this room played leading and pivotal roles in that effort. Those efforts directly led to the creation of the OSCE Chairperson-in-Office's Personal Representative on Combating Anti-Semitism, which has been filled with great distinction by Rabbi Andy Baker since 2009.    Rabbi Baker has done outstanding work, dogged and energetic. He has been the driver behind everything the OSCE has done, has accomplished in fighting anti-Semitism in recent years.    My efforts with partners to put anti-Semitism on the OSCE agenda also led to important conferences in Vienna, Berlin, in Bucharest, and last fall in Berlin. In each of these, participating states have made solemn, tangible commitments to put our words into action. In some countries progress indeed has been made. Institutions that fight anti-Semitism have been created and they have done excellent work. They have also done the all-important work of chronicling it. As Sharansky said at one of our hearings, ``If you don't chronicle the crime, how can you fight it?'' But it has not been enough to reverse the new anti-Semitism sweeping Europe and it has failed miserably to anticipate and prevent the arrival of jihadist anti-Semitism in Europe. That is why we are here today, to review, recommit, and reenergize efforts to stop the evil of anti-Semitic violence that is threatening the Jewish communities of Europe. And again, this is worldwide, but our focus primarily is on Europe today.    We need to learn more about what must be done to ensure community security, how the community sees the threats they face, what they are doing about them, what the European governments are doing about them and how everyone can and must do more.    We can also learn how the U.S. should do more and be more effective in this fight. And this is especially in light of World Jewish Congress President Lauder's all-important question, who will lead off our witnesses, when he says in testimony today, ``Where is the United States?'' Ambassador Lauder will say, ``Once again, like the 1930s, European Jews live in fear. In my travels to all of these communities,'' he goes on, ``I am asked the question around Europe and the world. Where is the United States? Why isn't the United States leading the world in this crisis?''    I would like to now yield to my good friend and colleague, Mr. Mark Meadows, for any comments he might have.</t>
   </si>
   <si>
     <t>412552</t>
   </si>
   <si>
+    <t>Meadows</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Meadows. Thank you, Mr. Chairman, and thank each of you for being here and also thank you to the 60 or so of you who are here from the World Jewish Congress. I noticed that you were here because you were arguing with each other on which way to get to the hearing room and it is a pleasure to have you here.    Sadly, this is an all too familiar theme and what we have heard and I will speak from the heart today because for this particular issue, it is a passion for me. It is one that we must continue to not only voice and articulate, but do it in a way that is persuasive where we can bring the rest of the world to an understanding of what happens each and every day. And I say each and every day because there are over 550 violent anti-Semitic crimes that are perpetrated every year. And so when we look at that and I am not just talking about slights, I am talking about violent incidents, so almost two a day, that are being experienced across the country and across the world.    And when we look at that, to put it in context, we have not seen this level since the days of World War II. And when we look at that, it is troubling when we can see that kind of rhetoric, hostility, and truly a hatred that continues to come out and honestly be justified because of some action that is happening somewhere else. To think that this would be an action that could somehow be justified because of a political, geopolitical thing that is happening throughout the world is inexcusable.    But I also think that it is critical for us to continue to raise the awareness. There is a generation that is coming up that do not know from history other than reading in textbooks what happened during World War II. It is not personal. The Holocaust survivors are truly disappearing at an alarming rate just because of age and yet, we are not doing a good job of truly educating and informing the generation to come.    And so my plea to each one of you is as Chairman Smith raises this issue in this hearing and the witness testimony hopefully will highlight it today, is that I need you to redouble your effort in your communities, in your synagogues, in the places where you do business, to make sure that this message continues to get told to the generations that are coming.    I will close with this. It is a personal story of my wife and I on the banks of a river in Budapest and there on the banks are some shoes, some bronze shoes. They are a reminder of a terrible, terrible thing that happened long ago. And yet, if we do not stand firm today, that same tragedy could happen again, and in ways is happening again today. And so I look forward to the testimony and I join the chairman in an unyielding resolve to make sure that we address this particular issue. And I thank the chairman.</t>
   </si>
   <si>
@@ -70,12 +85,18 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Cukierman</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cukierman. Mr. Chairman, members of the committee, thank you for the opportunity to appear before this subcommittee.    Jews have lived in France for the last 2,000 years. One thousand years ago, at the time of the crusades, the famous Talmudist Rachi was living in the city of Troyes. He was producing wine, a typical French job, and he was also famous for his expertise in old French language. More than 200 years ago in 1791, at the time of the French Revolution, French Jews were given full French citizenship. Today, we are \\1/2\\ million Jews in France, less than 1 percent of the French population. And the CRIF which I chair is the roof body of French Jewish institutions. It is comparable to the President's Conference of Major Jewish Institutions.    Today, in 2015, our synagogues and our Jewish schools have to be protected by the police and even by the army with machine guns. Why is that so? Because there is a World War started by Middle Age barbarian fanatics who are cutting heads, are stoning women, are killing kids, and want to impose to the rest of the world the Sharia, their concept of what Islam should be in their views.    The first victims are the moderate Muslims. This is a war against Western modern civilization. And the Jews are seen by these jihadists as a privileged target. We Jews are the sentinels at the forefront of this war. But we are not the only victims. Military forces, policemen and women, and journalists are also targeted and killed. These jihadists are acting under different names: Daesh, ISIS, al-Qaeda, Boko Haram, AQIM, Hamas. It started in the Middle East: Syria, Iraq, Yemen, and Gaza. It reaches Africa: Mali, Niger, Nigeria, Cameroon, Chad, and Tunisia and now it is in Europe: France, Belgium, and Denmark.    In France, small children were killed in March 2012 in Toulouse, at point-blank at the entrance of a school by Mohamed Merah. In 2014, four people were killed in the Jewish Museum of Brussels by Mehdi Nemouche. And then in January 2015, four people were killed in the Paris kosher grocery store, and then in front of the Copenhagen Synagogue. All victims were targeted because they were Jews. All these killers were jihadists.    In front of that situation the French Government shows a perfect understanding of our situation. Prime Minister Manuel Valls said that anti-Zionism is anti-Semitism. And President Hollande said that ``it is not the Jews who should leave the country, it is the anti-Semites.'' And immediately after the grocery attack, the government added close to 8,000 military to the police forces to protect the Jewish places.    From where are these jihadists coming? They come from the Muslim community which is estimated in France around 10 percent of the total French population. And the French jihadists is estimated at 1,300 people who are presently combating in Syria and Iraq. And among them many French ethnics recently converted to Islam.    It seems that they are generally not influenced by the French imams, not influenced by the press which they don't read, nor by the TV that they don't watch. They were educated to the jihad in the French jails and by Internet.    This is why the CRIF, our organization, bought a full page ad in the New York Times on March 2, 2015, which was an appeal to our American friends and also to you asking that they should put pressure on the Internet providers to set a limit to the swarm of hate which can be found on Internet, to remove anti-Semitic contents as soon as it is flagged. On the Internet ways were found to ban child pornography. Likewise anti-Semitism must be banned. The providers of Internet must understand that they bear a responsibility when murders are committed by youngsters who became jihadists through Internet.    Now the question that I am asked daily is whether there a future for Jews in France?    An increasing number of French Jews are considering leaving France. The French Jewish population which is estimated at \\1/2\\ million people, is the third largest Jewish community in the world after Israel and the U.S. In the last 3 years, 12,000 French citizens left to Israel. Others chose the U.S., Canada, or Australia. Many people refuse to see the future of their kids if they have to study in schools or to go to synagogues which appear as fortresses protected by military and heavy machine guns. The atmosphere is tense. One cannot travel in the subway with a yarmulke. Anti-Semitism is active in many suburbs and in many public schools.    Nevertheless, I believe that a big proportion of the French Jews will remain in France where their roots and their culture incite them to confront adversity as their parents or ancestors did at difficult periods like the Dreyfus Affair or the Vichy period.    Thank you and I am, of course, ready to answer any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. Mr. Cukierman, thank you very much for your insights and counsel and your historical perspective which is very, very illuminating. We look forward to questions when we get to that point.    I would like to now ask Mr. Asmussen, if you would proceed.</t>
   </si>
   <si>
+    <t>Asmussen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Asmussen. Dear Mr. Chairman, dear Members of Congress. It is a great honor for me to testify before the United States Congress, although it is on a sad occasion.    You probably think of Denmark as a small and peaceful country. And it is basically also the way we think ourselves. We are people of 5.5 million, 5,000 Jews.    Only 2 years ago, October 2013, the Danish society celebrated the 70 years commemoration of the saving of the Danish Jewry from the Nazi onslaught. It was an amazing achievement of the Danish society to stand up, come together and to save its Jewish minority. The Danish population believed that its Jewish neighbors and friends were an integral of the Danish society, making Denmark a country that could rightfully be defined as righteous among the nations.    On February 15th this year, the Danish society once again came together. This time in order to mourn the loss of Dan Uzan, a 37-year-old Jewish man, who was murdered while protecting the guests at a Bat Mitzah party in the Jewish Community Center. Thousands of Danes came together in order to speak out against terror.    While the community was in shock and despair, Danes showed again how much they care for their Jewish citizens. In the days following the attack, thousands of people showed their respect. They laid flowers in front of Copenhagen's synagogue.    So on February 15, the Jewish community and the whole Danish society was brutally awoken to a new reality. We had warned the authorities for years that such an attack like that could happen on Danish soil. We had urged them to take warning signs seriously, while we, the Jewish community in parallel, took it upon ourselves to safeguard our community.    The terror attack against the Jewish community in Denmark did not occur in a vacuum. It did not happen in Copenhagen just by chance. It was, unfortunately, the culmination of years of growing anti-Semitism. It happened in a country where it has become widely acceptable to criticize and question both Israel and Jews with a carelessness that we did not expect or imagine just a few years ago.    During the Gaza conflict last summer, a few hundred people were evacuated by police because police could not guarantee their safety due to aggression from Hamas supporters during a demonstration calling for peace, calling for a two-state solution.    A few days earlier, almost 4,000 people signed a petition urging Danish media not to use journalists with Jewish heritage for coverage of Middle East conflict. Yet, it was not before the Jewish school in Copenhagen was vandalized with graffiti that politicians decided to react and speak out against these incidents.    It is, however, important to understand that the Danish society itself has never been anti-Semitic and that many of the threats facing Danish Jewry, like in the rest of Europe, come from marginalized and radicalized Muslims, and these form, I believe, a small minority of all Muslims in Denmark.    The terrorist who committed the two murders was born and raised in Denmark and used his religion to justify the crime. Unfortunately, it doesn't seem that he is alone with this view. That was demonstrated when more than 700 people participated in his funeral cheering at him.    At this point, four people are jailed, accused of helping him.    On the other end of the spectrum, we have witnessed how Muslim organizations spoke out against hatred and prejudice against a fellow citizen. We truly appreciate that expression of support and we welcome any such initiatives. It is important for me to emphasize that we have good relations with moderate Muslim organizations. We work together on issues of common religious rights.    However, we still need for the Muslim community to do more, to become more outspoken against violence and hatred, to confront hate and prejudices toward Jews.    Danish society can only do so much. The real long-term solution needs to be found inside the Muslim community, and we need them to take more responsibility in speaking out against anti-Semitism and against terror committed in the name of their religion.    In recent weeks, the Jewish community received strong support from the Danish politicians through the media. We believe it served as a wake-up call and we expect that our problems will now be taken more seriously than in the past.    Last week, Ira Forman visited Copenhagen. Ira Forman is a Special Envoy to Monitor and Combat Anti-Semitism. He made it clear to us that the Danish Government in his opinion is not doing enough compared with the European countries to combat anti-Semitism. And he said that it could never be justified that the Jewish community, or any other minority group for that matter, should have to prioritize security over education or ultimately prioritize security over the future of the community.    Mr. Forman is right. If we spend all our resources on security, our children won't have a future. Yet, if we fail to protect our children, Danish Jewry won't have a future either. The parents simply won't send them to the Jewish school.    We need at this point a long-term governmental plan that will keep our community safe as much as possible. The Justice Department has said that such a plan is in the making. And we need the Muslim community to speak out and help in building a democratic, tolerant, and peaceful society. This is the only viable and long-term solution, so we one day will not need to risk the lives of our children in order for them to protect the community as Dan Uzan did.    I feel truly grateful toward the Danish society for standing up for the Jewish minority in these difficult times. I just wish they had done so when we asked for help after the incidents in Toulouse and Brussels.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -85,6 +106,12 @@
     <t>412470</t>
   </si>
   <si>
+    <t>Cicilline</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cicilline. Thank you, Mr. Chairman. I want to thank you for your leadership and for calling today's hearing on responding to the rising tide of anti-Semitism, to give us an opportunity examine in depth, the alarming increase in anti-Semitic incidents in Europe and begin to discuss what approaches should be used to temper this extremism that is unprecedented since the end of World War II.    I would also like to thank our very distinguished witnesses for being here today. Thank you for sharing your assessment of what the current status of anti-Semitism is in Europe and what specific trends you are seeing and what should be done to combat it and how we in Congress can assist.    The rise of anti-Semitism and related hate crimes in recent months is beyond debate. While many were awakened to this reality in January when four Jewish customers were killed in a kosher market in Paris, days after the attack on the satirical magazine, Charlie Hebdo, that left 12 people dead, anti-Semitism has been on the rise since the early 2000s. The United Kingdom last year, for example, recorded the highest number of anti-Semitic incidents with the London police reporting an increase of 120 percent in anti-Semitic crimes in 2014. Most alarming perhaps are recent statistics from the Anti-Defamation League that show that an average of 24 percent of those surveyed in Western European countries harbor some degree of anti-Semitic sentiment with that number jumping much higher in countries like Greece and France.    Furthermore, 66 percent of Jewish respondents indicated that anti-Semitism was a major problem in their respective countries. In response to the tragic attack in Denmark where two individuals were murdered at a synagogue in February, the Israeli Prime Minister stated, ``We are preparing and calling for the absorption of mass immigration from Europe. To the Jews of Europe and to the Jews of the world I say that Israel is waiting for you with open arms.''    The Chief Rabbi of Copenhagen, however, responded, ``We will not let terror dictate our lives. We will not. We will continue living as Jews here in Denmark and everywhere else in the world.''    The environment that is increasingly conductive to anti-Semite must be dealt with head on and immediately stopped. The United States has the largest Jewish population in the world and Jews have contributed greatly to all aspects of our society. Therefore, we have a personal stake in protecting communities as integral to the fabric of the United States. We need to work together with our European allies to combat anti-Semitism with the same vigor that we have with respect to protecting communities and to combating terrorism and ensuring peace and security around the world.    I look forward to working with my congressional colleagues, our European counterparts and the Jewish community all over the world to develop effective strategies to combat the rise of anti-Semitism in Europe and to work to ensure that this hatred is stopped in its tracks.    I thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -94,12 +121,21 @@
     <t>412604</t>
   </si>
   <si>
+    <t>Clawson</t>
+  </si>
+  <si>
+    <t>Curtis</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Clawson. Thank you for coming today and sharing your personal stories.    Mr. Asmussen, I remember the sadness in my father's eyes when the murders took place in Denmark. Clawson is Danish. My forefathers come from about an hour south of Copenhagen in Borse in Zealand. My dad has taken me there. My father speaks Danish. And so it hit home to us personally and I will always remember his face when it happened. And he has told me he was glad his father wasn't here. So your words hit home and if there is anything that I can ever do, and I am sure my colleagues can ever do, to influence this in a positive way I am innately motivated to do so and see the innate unjustness of what is going on with the Jewish community in Europe.    I think of your question or your comment that the solution must come from within the Muslim community. That feels hopeful to me, but it also feels like we have to prepare for the fact that that might not happen. And if so, my question for the three of you then becomes what do we do next? What do we do now? Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. Thank you very much. Mr. Emmer?</t>
   </si>
   <si>
+    <t>Emmer</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Emmer. Well, I echo my colleagues' comments. I want to thank the chair for holding this important hearing and I just want to thank everyone, not only the witnesses, but everyone else who understands the importance of this issue and has taken time to be here today.    It is amazing how this place works. Things are planned all at the same time and typically the same committees, but that shouldn't be taken as we don't think this is important. This is of paramount importance. So my apologies for coming in late. My thanks to the chair for having this important hearing and for all of you being here. And let us say the discussion and the testimony and the issue needs to be at the forefront and we need to keep raising it so people understand they can't just ignore it. You need to call things what they are and you need to address them when they occur.    So again, thank you, Mr. Chair, and thank you to the witnesses.</t>
   </si>
   <si>
@@ -115,10 +151,16 @@
     <t xml:space="preserve">    Mr. Smith. Thank you. Mr. Deutch.</t>
   </si>
   <si>
+    <t>Deutch</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Deutch. Thank you, Mr. Chairman, and thanks for giving me an opportunity just to sit in. I have another hearing. I appreciate it very much. Thanks for holding the hearing to you and Ranking Member Bass and thanks for your leadership on this and so many other human rights issues.    I appreciate the witnesses being here today, for offering their testimony. It is very helpful for Members of Congress to hear how the growth of anti-Semitism in recent years is viewed from a European perspective.    I will just make a couple of quick observations. We know that an overwhelming majority of the world's Jewish population lives in the United States and Israel, but in Europe where centuriess-old Jewish life was decimated by the Holocaust, the Jewish community that remains faces a growing animosity that is creating a very real security threat which your testimony here is so helpful to highlight. It is not to excuse, as Ambassador Lauder pointed out, it is not to excuse our own homegrown anti-Semitism. It certainly exists. The fact is it made up more than 50 percent of the religious bias-based hate crimes in 2013, but it is informative. It is helpful to hear how countries around the world are responding to intimidation tactics, to pressure, to deadly attacks on the Jewish populations.    The world as Ambassador Lauder said and as we have heard repeatedly and rightfully and importantly throughout your visit the past couple of days, the world has to take action because of what the rise of anti-Semitism means not just to the Jewish communities in Europe, but because of what the rise of anti-Semitism means to all countries that allow it to persist, what it actually portends for others.    And so I think we have to take action. I am proud to have joined with my colleagues, many of who are on the dais here today, the chairman in particular, to form the bipartisan task force for combating anti-Semitism, the purpose being we want to try to help our peers in Congress to understand the real and growing threat posed by anti-Semitism globally to allow Members of Congress to interact with the administration and to interact with NGOs and partners abroad to devise innovative ways to try to address these issues, to curb the threat and to attack it at its source.    And I will just finish, Mr. Chairman, by again highlighting that anti-Semitism matters to everyone. It is not just the Jews, but to every citizen in the world who values human rights. It is a shared threat. It is a threat that we have to work together to address what is our common problem.    And Ambassador Lauder, as you point out, efforts to mask anti-Semitism in some sort of anti-Israel rhetoric should be exposed for what they are. Ultimately, the threats posed by anti-Semitism are a threat, as I said, to all of us more broadly.    Your participation here, Mr. Chairman, your willingness to hold this hearing and your commitment to this issue means an enormous amount and I am grateful to be able to just stop by and participate. Thank you so much. I yield the rest of my time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. Mr. Deutch, thank you very much for being here and for working in this issue so long and so hard yourself and we do have now, we have just revitalized and reconstituted a task force on combating anti-Semitism with four Republicans and four Democrats as co-chairs. We hope to invite frankly the entire House to join us. We have had this before, but I think having four co-chairs on each side will further demonstrate the significance of this commitment and that we really want to see action.    I do have questions I will ask a little bit later, but I would like to yield; we are joined by the gentleman from Arizona, Trent Franks, who is the chairman of the Constitution Subcommittee for the Judiciary Committee. He has been back and forth because he, too, has a markup going on. But he is also chairman of the Religious Freedom Caucus. So it is really a privilege to welcome him to the subcommittee.</t>
+  </si>
+  <si>
+    <t>Franks</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Franks. Well, thank you, Mr. Chairman, and thanks to the subcommittee here for just allowing me the privilege to sit in on this. I am grateful to everyone that is here. I know that we have had anti-Semitism in the world for a long time, but it does seem like in recent days it has surged and I am incredibly discouraged about all of that.    My biggest fear is that somehow the countries of the world would somehow believe that America's commitment to Israel has diminished because that is of strategic significance to make it clear to the world that America is firmly with Israel and that Israel is with America. I am convinced that Israel is as important to America as America is to Israel. I know of no people on earth that contribute more to the cause of humanity than the people of Israel.    Mr. Chairman, it brings to my mind a quote by Shekh Hassan Nasrallah that really, I think, puts it into perspective. This is a jihadist that would do everything he could to destroy Israel if he could. And he said, ``You know, we have discovered how to hit the Jews where they are most vulnerable. The Jews love life. So that is what we shall take from them. We will win because they love life and we love death.'' Now that is a very frightening equation to face an enemy that loves death and is willing to embrace death in order to destroy another people based on just a bigoted point of view.    I would suggest to you, Mr. Chairman, that should be reason for great concern on the part of all us. The Jewish people have demonstrated a history that is unparalleled. when the Holocaust was over, if any people in the world had reason to quit, I suppose it was them, but instead of being crushed and instead of completely giving up, they got their revenge by living. They dried their eyes and looked up again and they began to build. And they built a community and they built a nation and today they are a force in the world for good and today, the Nazis are gone and Israel remains.    And Mr. Chairman, I think we need all be very committed to make sure that tomorrow, the jihadists will be gone and Israel will remain. I am grateful to you, sir, for this very valuable hearing. I think it is important that the world and the people of Israel know that some of their rhetoric that has come from our administration lately does not reflect the hearts of the Congress.    And with that, sir, I thank you for the opportunity.</t>
@@ -569,7 +611,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,7 +619,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,1277 +641,1495 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
       <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
       <c r="H12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G23" t="s">
+        <v>30</v>
+      </c>
       <c r="H23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G26" t="s">
+        <v>30</v>
+      </c>
       <c r="H26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G27" t="s">
+        <v>30</v>
+      </c>
       <c r="H27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G28" t="s">
+        <v>30</v>
+      </c>
       <c r="H28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G29" t="s">
+        <v>30</v>
+      </c>
       <c r="H29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G30" t="s">
+        <v>30</v>
+      </c>
       <c r="H30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
       <c r="H31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
       <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
       <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
       <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G36" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
       <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G38" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
       <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G40" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
       <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G42" t="s">
+        <v>39</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G43" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G44" t="s">
+        <v>39</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G45" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G46" t="s">
+        <v>39</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G47" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G48" t="s">
+        <v>39</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G49" t="s">
+        <v>39</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G50" t="s">
+        <v>39</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G51" t="s">
+        <v>39</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G52" t="s">
+        <v>39</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G53" t="s">
+        <v>39</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
       <c r="H54" t="s">
-        <v>68</v>
+        <v>18</v>
+      </c>
+      <c r="I54" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg93914.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93914.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400380</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Smith</t>
   </si>
   <si>
@@ -65,6 +71,9 @@
   </si>
   <si>
     <t>412552</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Meadows</t>
@@ -611,7 +620,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -619,7 +628,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -644,1492 +653,1604 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G32" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G33" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" t="s">
-        <v>23</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G35" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" t="s">
-        <v>23</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G37" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" t="s">
-        <v>23</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>26</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G39" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" t="s">
-        <v>26</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G41" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" t="s">
-        <v>39</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>42</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" t="s">
-        <v>23</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>26</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" t="s">
-        <v>39</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>42</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" t="s">
-        <v>23</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" t="s">
-        <v>39</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>42</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" t="s">
-        <v>26</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>29</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" t="s">
-        <v>39</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>42</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" t="s">
-        <v>39</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>42</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" t="s">
-        <v>39</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>42</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" t="s">
-        <v>39</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>42</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>22</v>
-      </c>
-      <c r="G52" t="s">
-        <v>39</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>42</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" t="s">
-        <v>39</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>42</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H54" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I54" t="s">
-        <v>82</v>
+        <v>21</v>
+      </c>
+      <c r="J54" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
